--- a/Chunk7-Usability/Usability-scoringsheet.xlsx
+++ b/Chunk7-Usability/Usability-scoringsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820067A0-B0F2-A543-BF50-3B1652FFCE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636F06ED-A650-9245-89A4-0B2C6BF60962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
+    <workbookView xWindow="-28500" yWindow="1820" windowWidth="22180" windowHeight="18880" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
   <si>
     <t>Licence</t>
   </si>
@@ -159,19 +159,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Recurrence</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are the results can be reproduce using the written codes?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Bug feedback and response</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is there any submitted problems from users and responses in return?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -454,13 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Do the functions and objects have a consistent naming?</t>
-  </si>
-  <si>
-    <t>Constant naming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>If operation system, GPU or other equipment are specifically needed ~ 0.5; else ~ 1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -490,6 +471,18 @@
 one ~ 0.5; 
 two and more ~ 1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is there any submitted problem from users and response in return?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Almost all problems have responses ~ 1;
+2. Many problems have responses ~ 0.6;
+3. Many problems have no responses ~ 0.3;
+4. All problems have no responses ~ 0;
+5. No problems ~ 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -578,10 +571,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -904,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD71F8A-E007-B646-B5B8-888D68F290B2}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -916,7 +909,7 @@
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -937,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34">
@@ -957,13 +950,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34">
@@ -978,17 +971,17 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F3" s="4">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
@@ -999,17 +992,17 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
@@ -1020,17 +1013,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
@@ -1041,17 +1034,17 @@
         <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
@@ -1062,14 +1055,14 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8"/>
@@ -1080,7 +1073,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -1090,7 +1083,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="34">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
@@ -1101,14 +1094,14 @@
         <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1121,17 +1114,17 @@
         <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
@@ -1142,24 +1135,26 @@
         <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17">
-      <c r="A12" s="6">
+    <row r="12" spans="1:7" ht="34">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F12" s="4">
         <v>2</v>
       </c>
@@ -1168,7 +1163,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="68">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
@@ -1179,7 +1174,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -1189,143 +1184,143 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="34">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="6" t="s">
-        <v>104</v>
+      <c r="C14" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="34">
-      <c r="A16" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="F16" s="4">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17">
-      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="19" spans="1:7" ht="34">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="20" spans="1:7" ht="34">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -1335,75 +1330,75 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="34">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="34">
-      <c r="A22" s="6">
+      <c r="G21" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="85">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="4">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="34">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F23" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
@@ -1411,288 +1406,246 @@
         <v>34</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F24" s="4">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34">
-      <c r="A25" s="6">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F25" s="4">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34">
-      <c r="A26" s="6">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="F26" s="4">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34">
-      <c r="A27" s="6">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="34">
-      <c r="A28" s="6">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="51">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F28" s="4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34">
-      <c r="A29" s="6">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F29" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="51">
-      <c r="A30" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="34">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="F30" s="4">
-        <v>4</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="34">
-      <c r="A31" s="6">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F31" s="4">
-        <v>6</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="34">
-      <c r="A32" s="6">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
       </c>
       <c r="G32" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="34">
-      <c r="A33" s="6">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="34">
-      <c r="A34" s="6">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
       </c>
       <c r="G34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="34">
-      <c r="A35" s="6">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F35" s="4">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="34">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chunk7-Usability/Usability-scoringsheet.xlsx
+++ b/Chunk7-Usability/Usability-scoringsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636F06ED-A650-9245-89A4-0B2C6BF60962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62707FC-4D95-9440-BB7D-EB6807949CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28500" yWindow="1820" windowWidth="22180" windowHeight="18880" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD71F8A-E007-B646-B5B8-888D68F290B2}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Chunk7-Usability/Usability-scoringsheet.xlsx
+++ b/Chunk7-Usability/Usability-scoringsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62707FC-4D95-9440-BB7D-EB6807949CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E91764-B383-364C-951B-8CEF31145DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
   </bookViews>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Demostrations</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Are there some demostrations for using the method? Are they detailed?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -264,10 +260,6 @@
   </si>
   <si>
     <t>All methods are ordered with the cite numbers of papers.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supplementory files</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -483,6 +475,14 @@
 4. All problems have no responses ~ 0;
 5. No problems ~ 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demonstrations</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplementary files</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD71F8A-E007-B646-B5B8-888D68F290B2}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -930,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34">
@@ -950,13 +950,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34">
@@ -971,13 +971,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="4">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34">
@@ -992,13 +992,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34">
@@ -1013,13 +1013,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34">
@@ -1034,13 +1034,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34">
@@ -1055,7 +1055,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -1073,7 +1073,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -1094,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -1114,13 +1114,13 @@
         <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="4">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68">
@@ -1135,7 +1135,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1147,13 +1147,13 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -1189,19 +1189,19 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4">
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34">
@@ -1210,19 +1210,19 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17">
@@ -1237,7 +1237,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -1249,19 +1249,19 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17" s="4">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34">
@@ -1269,16 +1269,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -1293,13 +1293,13 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -1314,13 +1314,13 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -1335,19 +1335,19 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4">
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="85">
@@ -1361,16 +1361,16 @@
         <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34">
@@ -1379,19 +1379,19 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F23" s="4">
         <v>6</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34">
@@ -1406,7 +1406,7 @@
         <v>34</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -1427,7 +1427,7 @@
         <v>36</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -1465,13 +1465,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F27" s="4">
         <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="51">
@@ -1480,19 +1480,19 @@
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F28" s="4">
         <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F29" s="4">
         <v>6</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="34">
@@ -1522,13 +1522,13 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
@@ -1543,13 +1543,13 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -1560,16 +1560,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
@@ -1584,19 +1584,19 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F33" s="4">
         <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17">
@@ -1605,13 +1605,13 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -1626,13 +1626,13 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="3" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>

--- a/Chunk7-Usability/Usability-scoringsheet.xlsx
+++ b/Chunk7-Usability/Usability-scoringsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E91764-B383-364C-951B-8CEF31145DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A79B4-E498-0D43-ACD6-E91D58D8F860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
+    <workbookView xWindow="-30240" yWindow="1480" windowWidth="30240" windowHeight="18880" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD71F8A-E007-B646-B5B8-888D68F290B2}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1599,7 +1599,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17">
+    <row r="34" spans="1:7" ht="33" customHeight="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>

--- a/Chunk7-Usability/Usability-scoringsheet.xlsx
+++ b/Chunk7-Usability/Usability-scoringsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A79B4-E498-0D43-ACD6-E91D58D8F860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E954459-8C25-7B40-B750-2922F1ADEDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="1480" windowWidth="30240" windowHeight="18880" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
+    <workbookView xWindow="-30240" yWindow="1460" windowWidth="30240" windowHeight="18900" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
   <si>
     <t>Licence</t>
   </si>
@@ -482,6 +482,10 @@
   </si>
   <si>
     <t>Supplementary files</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>If true ~ 1; else ~ 0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -899,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD71F8A-E007-B646-B5B8-888D68F290B2}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1255,7 +1259,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F17" s="4">
         <v>3</v>

--- a/Chunk7-Usability/Usability-scoringsheet.xlsx
+++ b/Chunk7-Usability/Usability-scoringsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E954459-8C25-7B40-B750-2922F1ADEDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A68C62B-00F9-7D48-9AAD-788BFA8D4782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="1460" windowWidth="30240" windowHeight="18900" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
+    <workbookView xWindow="-30240" yWindow="1480" windowWidth="30240" windowHeight="18880" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unite testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Are there unite testings in the codes?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,12 +484,16 @@
     <t>If true ~ 1; else ~ 0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Unit testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -533,6 +533,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -556,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,6 +591,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD71F8A-E007-B646-B5B8-888D68F290B2}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -934,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34">
@@ -960,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34">
@@ -981,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34">
@@ -1002,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34">
@@ -1023,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34">
@@ -1044,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34">
@@ -1052,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1098,7 +1107,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -1124,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68">
@@ -1132,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1205,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34">
@@ -1214,10 +1223,10 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>64</v>
@@ -1226,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17">
@@ -1241,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -1259,13 +1268,13 @@
         <v>66</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="4">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34">
@@ -1273,13 +1282,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>58</v>
@@ -1296,11 +1305,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="3" t="s">
-        <v>75</v>
+      <c r="C19" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>58</v>
@@ -1318,10 +1327,10 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>64</v>
@@ -1339,10 +1348,10 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>64</v>
@@ -1351,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="85">
@@ -1365,16 +1374,16 @@
         <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34">
@@ -1395,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34">
@@ -1424,7 +1433,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1442,14 +1451,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -1475,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="51">
@@ -1484,19 +1493,19 @@
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="4">
         <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34">
@@ -1517,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="34">
@@ -1600,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="33" customHeight="1">
@@ -1608,7 +1617,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1629,8 +1638,8 @@
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="3" t="s">
-        <v>108</v>
+      <c r="C35" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>57</v>

--- a/Chunk7-Usability/Usability-scoringsheet.xlsx
+++ b/Chunk7-Usability/Usability-scoringsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A68C62B-00F9-7D48-9AAD-788BFA8D4782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C44FEB-9ED5-624A-9EB0-3C881F646E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="1480" windowWidth="30240" windowHeight="18880" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>Licence</t>
   </si>
@@ -99,14 +99,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Complexity of installation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can the method be installed easily?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Prior information</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -135,14 +127,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Code arrangement</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are the codes well arranged?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Duplicate codes</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -175,22 +159,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>New function/ Big alteration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Has the method been updated with new functions or any other big alterations?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modification</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Has the method been modified or wrapped in other tools for development and easy use?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Interface_doc</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -248,22 +216,6 @@
   </si>
   <si>
     <t>Has the paper been peer-reviewed?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cite</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>How many cites does the paper has?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>All methods are ordered with the cite numbers of papers.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the paper published with detailed supplementary files?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -276,17 +228,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>If the method is installed in one time with installation guide ~ 1; else ~ 0.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>If programming and other expertise are needed ~ 0.5;
 else ~ 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Well arranged, clear descriptions, necessary annotations, accurate indentation, normal style ~ 1;
-2. some descriptions and annotations, a little messy, some indentation errors ~ 0.5; else ~ 0.1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -338,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assessment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comparison</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Has the method been assessed in different ways?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Criteria</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,11 +383,6 @@
   <si>
     <t>Does the study test the robustness of the method?</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If ture ~ 1;
-If false ~ 0.8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>No demostrations ~ 0; 
@@ -477,10 +407,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Supplementary files</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>If true ~ 1; else ~ 0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -493,7 +419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -533,12 +459,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -562,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,9 +511,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD71F8A-E007-B646-B5B8-888D68F290B2}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -943,10 +860,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34">
@@ -963,13 +880,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34">
@@ -984,13 +901,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F3" s="4">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34">
@@ -1005,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34">
@@ -1026,13 +943,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34">
@@ -1047,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34">
@@ -1061,16 +978,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1086,20 +1006,19 @@
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1107,33 +1026,34 @@
         <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68">
@@ -1141,17 +1061,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="10" t="s">
-        <v>25</v>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34">
@@ -1160,251 +1083,253 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="68">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="34">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F14" s="4">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F15" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
         <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="34">
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="85">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10" t="s">
-        <v>74</v>
+      <c r="B19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F20" s="4">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F21" s="4">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="85">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="F22" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="34">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="F23" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34">
@@ -1413,19 +1338,19 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F24" s="4">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34">
@@ -1433,17 +1358,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="10" t="s">
-        <v>35</v>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F25" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34">
@@ -1451,14 +1379,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="10" t="s">
-        <v>37</v>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -1469,196 +1397,53 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F27" s="4">
-        <v>4</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="51">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="F28" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="34">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="4">
-        <v>6</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="34">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="4">
-        <v>2</v>
-      </c>
-      <c r="G30" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="34">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="34">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="34">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="4">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="33" customHeight="1">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="34">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chunk7-Usability/Usability-scoringsheet.xlsx
+++ b/Chunk7-Usability/Usability-scoringsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C44FEB-9ED5-624A-9EB0-3C881F646E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9F3E43-DC16-954F-BB9F-60C3621F6254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{ECC7C1DC-8C6F-F745-BDE7-BC16A5C47C98}"/>
   </bookViews>
@@ -365,20 +365,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If operation system, GPU or other equipment are specifically needed ~ 0.5; else ~ 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>References</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The files are categorized ~ 1; else ~ 0.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Does the study test the robustness of the method?</t>
@@ -413,6 +405,14 @@
   <si>
     <t>Unit testing</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If operation system, GPU or other equipment are specifically needed ~ 0; else ~ 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The files are categorized ~ 1; else ~ 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD71F8A-E007-B646-B5B8-888D68F290B2}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -860,10 +860,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34">
@@ -901,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4">
         <v>4</v>
@@ -1006,7 +1006,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F12" s="4">
         <v>3</v>
@@ -1104,13 +1104,13 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F13" s="4">
         <v>5</v>
@@ -1131,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="4">
         <v>3</v>
@@ -1211,7 +1211,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>50</v>
@@ -1234,10 +1234,10 @@
         <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="4">
         <v>5</v>
@@ -1302,7 +1302,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F22" s="4">
         <v>4</v>
@@ -1317,13 +1317,13 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="4">
         <v>4</v>
@@ -1344,7 +1344,7 @@
         <v>36</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F24" s="4">
         <v>6</v>
@@ -1365,7 +1365,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
@@ -1386,7 +1386,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>42</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -1427,7 +1427,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F28" s="4">
         <v>3</v>
